--- a/Prototypes/Sensors_3_Basic_Distance_Ultrasone/Measurements Ultrasoon.xlsx
+++ b/Prototypes/Sensors_3_Basic_Distance_Ultrasone/Measurements Ultrasoon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\121092\Downloads\PortableGit\Aqua\Aqua\Prototypes\Sensors_3_Basic_Distance_Ultrasone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\121092\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Ultrasoon</t>
   </si>
@@ -75,6 +75,54 @@
   </si>
   <si>
     <t>48 cm</t>
+  </si>
+  <si>
+    <t>Meeting 1</t>
+  </si>
+  <si>
+    <t>Meeting 2</t>
+  </si>
+  <si>
+    <t>Afstand</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>49 cm</t>
+  </si>
+  <si>
+    <t>70 cm</t>
+  </si>
+  <si>
+    <t>68 cm</t>
+  </si>
+  <si>
+    <t>100 cm</t>
+  </si>
+  <si>
+    <t>98 cm</t>
+  </si>
+  <si>
+    <t>150 cm</t>
+  </si>
+  <si>
+    <t>148 cm</t>
+  </si>
+  <si>
+    <t>200 cm</t>
+  </si>
+  <si>
+    <t>197 cm</t>
+  </si>
+  <si>
+    <t>225 cm</t>
+  </si>
+  <si>
+    <t>2300 cm</t>
+  </si>
+  <si>
+    <t>250 cm</t>
   </si>
 </sst>
 </file>
@@ -392,19 +440,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,68 +462,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
